--- a/Code/Results/Cases/Case_8_47/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_8_47/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.878564072832091</v>
+        <v>3.500210104424241</v>
       </c>
       <c r="C2">
-        <v>1.59264859238715</v>
+        <v>1.695899306485842</v>
       </c>
       <c r="D2">
-        <v>0.04435206548169646</v>
+        <v>0.0674343363369232</v>
       </c>
       <c r="E2">
-        <v>0.1339572050462792</v>
+        <v>0.1479056333710957</v>
       </c>
       <c r="F2">
-        <v>2.607391351928825</v>
+        <v>2.225111360277694</v>
       </c>
       <c r="G2">
-        <v>0.0008114734545673269</v>
+        <v>0.004474238003169928</v>
       </c>
       <c r="H2">
-        <v>3.043828253357361E-05</v>
+        <v>7.536127510032742E-05</v>
       </c>
       <c r="I2">
-        <v>0.0004450043091237532</v>
+        <v>0.0009633501241355091</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.9911784034245059</v>
+        <v>0.7590831038652297</v>
       </c>
       <c r="L2">
-        <v>0.2624918908578877</v>
+        <v>0.3452864087029681</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.2344007742429852</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.2621439687501805</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.8686238401489987</v>
+        <v>0</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0.7626823468312489</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.37761617091445</v>
+        <v>3.058016785188272</v>
       </c>
       <c r="C3">
-        <v>1.384190865616631</v>
+        <v>1.471619486230338</v>
       </c>
       <c r="D3">
-        <v>0.03872543332836642</v>
+        <v>0.0598807579002667</v>
       </c>
       <c r="E3">
-        <v>0.1169919242872055</v>
+        <v>0.1307906973642403</v>
       </c>
       <c r="F3">
-        <v>2.366457504275829</v>
+        <v>2.023916758531001</v>
       </c>
       <c r="G3">
-        <v>0.0008173230502884456</v>
+        <v>0.008267495280417814</v>
       </c>
       <c r="H3">
-        <v>0.0008252712566561016</v>
+        <v>0.0001058026682132507</v>
       </c>
       <c r="I3">
-        <v>0.0008604852094835636</v>
+        <v>0.000521166965240738</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.9220706291471004</v>
+        <v>0.7117977320993489</v>
       </c>
       <c r="L3">
-        <v>0.2292675278997294</v>
+        <v>0.3368563290043269</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.207993427350381</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.2314937764513019</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.900829884217238</v>
+        <v>0</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0.7909607175140527</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.070348491916604</v>
+        <v>2.785470810255902</v>
       </c>
       <c r="C4">
-        <v>1.25750849303347</v>
+        <v>1.33479317558465</v>
       </c>
       <c r="D4">
-        <v>0.03533716336966819</v>
+        <v>0.05531701329032046</v>
       </c>
       <c r="E4">
-        <v>0.1066729738101238</v>
+        <v>0.1203314646510805</v>
       </c>
       <c r="F4">
-        <v>2.219761563626093</v>
+        <v>1.900473331483397</v>
       </c>
       <c r="G4">
-        <v>0.000821025334537332</v>
+        <v>0.01126384979428374</v>
       </c>
       <c r="H4">
-        <v>0.001884662632358758</v>
+        <v>0.0004982548842027423</v>
       </c>
       <c r="I4">
-        <v>0.001663866738951025</v>
+        <v>0.0005557764003101262</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.8799915776833132</v>
+        <v>0.6826151320675891</v>
       </c>
       <c r="L4">
-        <v>0.2090039454842199</v>
+        <v>0.3312907604162874</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.192597568433289</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.2127019379795314</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.9209623254966921</v>
+        <v>0</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0.8086363875052975</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.942754517030096</v>
+        <v>2.671968436902546</v>
       </c>
       <c r="C5">
-        <v>1.206735218831398</v>
+        <v>1.279773188956938</v>
       </c>
       <c r="D5">
-        <v>0.03406735114337778</v>
+        <v>0.05358505351939158</v>
       </c>
       <c r="E5">
-        <v>0.1025298107054979</v>
+        <v>0.1161210179167576</v>
       </c>
       <c r="F5">
-        <v>2.15808735509988</v>
+        <v>1.848276212340366</v>
       </c>
       <c r="G5">
-        <v>0.0008225726154148026</v>
+        <v>0.01265264805449517</v>
       </c>
       <c r="H5">
-        <v>0.002454400552762026</v>
+        <v>0.0007480838645201882</v>
       </c>
       <c r="I5">
-        <v>0.002194531574851499</v>
+        <v>0.000722740444015102</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.8616275453138371</v>
+        <v>0.669619226976522</v>
       </c>
       <c r="L5">
-        <v>0.2007178921995489</v>
+        <v>0.3284707875070296</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.1861804380241452</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.2049965948987378</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9287489101943329</v>
+        <v>0</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0.8156735544841198</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.918624337705353</v>
+        <v>2.650469840917538</v>
       </c>
       <c r="C6">
-        <v>1.199011071728989</v>
+        <v>1.271316180252995</v>
       </c>
       <c r="D6">
-        <v>0.03397515311211663</v>
+        <v>0.05343365712369774</v>
       </c>
       <c r="E6">
-        <v>0.1018940250051372</v>
+        <v>0.1154738122902437</v>
       </c>
       <c r="F6">
-        <v>2.145224849835543</v>
+        <v>1.837299670984152</v>
       </c>
       <c r="G6">
-        <v>0.0008228435357889643</v>
+        <v>0.0129040291066197</v>
       </c>
       <c r="H6">
-        <v>0.002560974461708554</v>
+        <v>0.0007965166175798455</v>
       </c>
       <c r="I6">
-        <v>0.00238908392046433</v>
+        <v>0.0008625374988060486</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.8570069863488428</v>
+        <v>0.6661650212754324</v>
       </c>
       <c r="L6">
-        <v>0.1992765293364087</v>
+        <v>0.3274437723482606</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.184706644432751</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.2036564358168249</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.9294369938893254</v>
+        <v>0</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0.8165566925968242</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3.060552747111842</v>
+        <v>2.765818573340937</v>
       </c>
       <c r="C7">
-        <v>1.258712382615727</v>
+        <v>1.326233837666337</v>
       </c>
       <c r="D7">
-        <v>0.03564230775569399</v>
+        <v>0.05643765505848819</v>
       </c>
       <c r="E7">
-        <v>0.1067567616560865</v>
+        <v>0.1206995347816395</v>
       </c>
       <c r="F7">
-        <v>2.211713881429603</v>
+        <v>1.880290162627503</v>
       </c>
       <c r="G7">
-        <v>0.0008210791444112304</v>
+        <v>0.01169361599402285</v>
       </c>
       <c r="H7">
-        <v>0.00190112245260976</v>
+        <v>0.0005143721273948021</v>
       </c>
       <c r="I7">
-        <v>0.0019213626278205</v>
+        <v>0.0008360953131187898</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.8754329003409751</v>
+        <v>0.6736377750213549</v>
       </c>
       <c r="L7">
-        <v>0.2087082962773081</v>
+        <v>0.3275362928913523</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.1896010964466122</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.2120652429133969</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0.9194155596477884</v>
+        <v>0</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0.8069087413789222</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.694897323286057</v>
+        <v>3.301646984264721</v>
       </c>
       <c r="C8">
-        <v>1.522990383827107</v>
+        <v>1.588342380790948</v>
       </c>
       <c r="D8">
-        <v>0.04282766249092163</v>
+        <v>0.06794226607335929</v>
       </c>
       <c r="E8">
-        <v>0.1282704208591063</v>
+        <v>0.1431369087817629</v>
       </c>
       <c r="F8">
-        <v>2.514415659908948</v>
+        <v>2.103536170739361</v>
       </c>
       <c r="G8">
-        <v>0.0008135099043539264</v>
+        <v>0.007499712307293294</v>
       </c>
       <c r="H8">
-        <v>0.0001841313763759622</v>
+        <v>2.087132624950527E-06</v>
       </c>
       <c r="I8">
-        <v>0.0007527921248975389</v>
+        <v>0.001042585744974289</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.9615304260334909</v>
+        <v>0.7207549694615807</v>
       </c>
       <c r="L8">
-        <v>0.2507533898719458</v>
+        <v>0.3335779808741606</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.217391897111284</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.2501063527328284</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.8775364754882276</v>
+        <v>0</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0.7686086561947678</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.958791931481926</v>
+        <v>4.397785003728814</v>
       </c>
       <c r="C9">
-        <v>2.050333484089606</v>
+        <v>2.142168371153218</v>
       </c>
       <c r="D9">
-        <v>0.05694903423405862</v>
+        <v>0.08762140458848222</v>
       </c>
       <c r="E9">
-        <v>0.1711963285225124</v>
+        <v>0.1863584599908634</v>
       </c>
       <c r="F9">
-        <v>3.133367710476705</v>
+        <v>2.602119340298344</v>
       </c>
       <c r="G9">
-        <v>0.000799453612186422</v>
+        <v>0.002088008382189699</v>
       </c>
       <c r="H9">
-        <v>0.001783321018496542</v>
+        <v>0.002175925562453385</v>
       </c>
       <c r="I9">
-        <v>0.002924534388241362</v>
+        <v>0.003681454596987876</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.141767906893492</v>
+        <v>0.8375667026356766</v>
       </c>
       <c r="L9">
-        <v>0.3350208851942114</v>
+        <v>0.3529360468450378</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.2870945443671928</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.3267647338318369</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0.8013683482466725</v>
+        <v>0</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0.7009348094483294</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.854933820058477</v>
+        <v>5.10212204919037</v>
       </c>
       <c r="C10">
-        <v>2.426008020095196</v>
+        <v>2.473077854673988</v>
       </c>
       <c r="D10">
-        <v>0.06581984157038079</v>
+        <v>0.1046786319242017</v>
       </c>
       <c r="E10">
-        <v>0.1954029148511864</v>
+        <v>0.2116964191580948</v>
       </c>
       <c r="F10">
-        <v>3.543913509188997</v>
+        <v>2.848451083947509</v>
       </c>
       <c r="G10">
-        <v>0.0007898620411237434</v>
+        <v>0.009194058899581137</v>
       </c>
       <c r="H10">
-        <v>0.00649639373811306</v>
+        <v>0.005853884051876257</v>
       </c>
       <c r="I10">
-        <v>0.008072696192514606</v>
+        <v>0.007374281316494979</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.257713298945077</v>
+        <v>0.8790715837028742</v>
       </c>
       <c r="L10">
-        <v>0.3810499948982624</v>
+        <v>0.3494783655946847</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.3252033863367245</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.3646189083732736</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.7416789060357161</v>
+        <v>0</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0.6501905366946676</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.93915807683419</v>
+        <v>5.051510220417242</v>
       </c>
       <c r="C11">
-        <v>2.398351070872479</v>
+        <v>2.315978633266354</v>
       </c>
       <c r="D11">
-        <v>0.05292158561788796</v>
+        <v>0.09591997635884297</v>
       </c>
       <c r="E11">
-        <v>0.1414425771433336</v>
+        <v>0.1570014964959441</v>
       </c>
       <c r="F11">
-        <v>3.278738718479985</v>
+        <v>2.470120451134861</v>
       </c>
       <c r="G11">
-        <v>0.000787781044021195</v>
+        <v>0.04296454575515796</v>
       </c>
       <c r="H11">
-        <v>0.02525115648619902</v>
+        <v>0.02405935751809807</v>
       </c>
       <c r="I11">
-        <v>0.009926227446960034</v>
+        <v>0.008448725478940489</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.153208716791255</v>
+        <v>0.7418496723565013</v>
       </c>
       <c r="L11">
-        <v>0.2673853235696839</v>
+        <v>0.2929195879238904</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.2799959023866663</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.2493108269569433</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0.6763550295710345</v>
+        <v>0</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0.6393244147639692</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.830407560834146</v>
+        <v>4.911864881870144</v>
       </c>
       <c r="C12">
-        <v>2.291956980760801</v>
+        <v>2.150805551346878</v>
       </c>
       <c r="D12">
-        <v>0.04148944475973337</v>
+        <v>0.0821207972949054</v>
       </c>
       <c r="E12">
-        <v>0.1000023156686325</v>
+        <v>0.1131050489674017</v>
       </c>
       <c r="F12">
-        <v>2.987753683758058</v>
+        <v>2.172170402026893</v>
       </c>
       <c r="G12">
-        <v>0.0007878526597831685</v>
+        <v>0.06722555068662217</v>
       </c>
       <c r="H12">
-        <v>0.06327870737025165</v>
+        <v>0.06206387206617592</v>
       </c>
       <c r="I12">
-        <v>0.009821720599896722</v>
+        <v>0.008218104359063894</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.05064503267262</v>
+        <v>0.6473326350218187</v>
       </c>
       <c r="L12">
-        <v>0.1829901000369532</v>
+        <v>0.2572872683342382</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.2449509727791792</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.1672102967876796</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0.6472348371132961</v>
+        <v>0</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0.6574648052679706</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.555039260390743</v>
+        <v>4.711352821850767</v>
       </c>
       <c r="C13">
-        <v>2.122854493006287</v>
+        <v>1.992478353665433</v>
       </c>
       <c r="D13">
-        <v>0.03107501707227911</v>
+        <v>0.06362284256135098</v>
       </c>
       <c r="E13">
-        <v>0.06629692580371227</v>
+        <v>0.07568434988148454</v>
       </c>
       <c r="F13">
-        <v>2.650615295300184</v>
+        <v>1.927621577003563</v>
       </c>
       <c r="G13">
-        <v>0.0007896263069728863</v>
+        <v>0.06124192611445167</v>
       </c>
       <c r="H13">
-        <v>0.1177361822917504</v>
+        <v>0.1168977493731376</v>
       </c>
       <c r="I13">
-        <v>0.008503642298322234</v>
+        <v>0.007422986549900479</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.9372754567134294</v>
+        <v>0.5806330062312313</v>
       </c>
       <c r="L13">
-        <v>0.116553441066678</v>
+        <v>0.2346113990553818</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.2169760300826269</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.1056939586607761</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0.6409631674143963</v>
+        <v>0</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0.6837383297327051</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.286513988865806</v>
+        <v>4.539528213487415</v>
       </c>
       <c r="C14">
-        <v>1.978263595346391</v>
+        <v>1.882816030993808</v>
       </c>
       <c r="D14">
-        <v>0.02461354103218127</v>
+        <v>0.0499804383393041</v>
       </c>
       <c r="E14">
-        <v>0.04773067121531405</v>
+        <v>0.05443702751191104</v>
       </c>
       <c r="F14">
-        <v>2.3958747596769</v>
+        <v>1.774581538150514</v>
       </c>
       <c r="G14">
-        <v>0.0007916302658015573</v>
+        <v>0.04454062780100543</v>
       </c>
       <c r="H14">
-        <v>0.1660178003168511</v>
+        <v>0.1655456228945695</v>
       </c>
       <c r="I14">
-        <v>0.007229070220795109</v>
+        <v>0.006731940542405113</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.8532770509937535</v>
+        <v>0.5435659111505515</v>
       </c>
       <c r="L14">
-        <v>0.08145275712817934</v>
+        <v>0.2232567552474976</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.1997246028475104</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.07454304171091408</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0.6479804435229024</v>
+        <v>0</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0.7030357168932397</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.183555823013535</v>
+        <v>4.479603666755054</v>
       </c>
       <c r="C15">
-        <v>1.930811684996172</v>
+        <v>1.855285671744923</v>
       </c>
       <c r="D15">
-        <v>0.0230907918839911</v>
+        <v>0.04612638778653633</v>
       </c>
       <c r="E15">
-        <v>0.04370283591368107</v>
+        <v>0.04975307175486243</v>
       </c>
       <c r="F15">
-        <v>2.321320475485535</v>
+        <v>1.741056028896068</v>
       </c>
       <c r="G15">
-        <v>0.0007925101004819697</v>
+        <v>0.03612025464214952</v>
       </c>
       <c r="H15">
-        <v>0.1781159054893493</v>
+        <v>0.1777872542445209</v>
       </c>
       <c r="I15">
-        <v>0.006805999358977743</v>
+        <v>0.006567310753100131</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.828945015620981</v>
+        <v>0.5371999873142812</v>
       </c>
       <c r="L15">
-        <v>0.07409805608777731</v>
+        <v>0.2219521534519053</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.1958785145542805</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.06841066790460815</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0.6530500325507909</v>
+        <v>0</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0.7071421990837763</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.856821910040651</v>
+        <v>4.315798451020385</v>
       </c>
       <c r="C16">
-        <v>1.809326563203172</v>
+        <v>1.829644695913089</v>
       </c>
       <c r="D16">
-        <v>0.02182141259023851</v>
+        <v>0.03925496724418309</v>
       </c>
       <c r="E16">
-        <v>0.04162544165304638</v>
+        <v>0.04736367342513326</v>
       </c>
       <c r="F16">
-        <v>2.218384749158758</v>
+        <v>1.777273636395989</v>
       </c>
       <c r="G16">
-        <v>0.0007962317685693492</v>
+        <v>0.008086861332730066</v>
       </c>
       <c r="H16">
-        <v>0.1637944467884012</v>
+        <v>0.1639354506454254</v>
       </c>
       <c r="I16">
-        <v>0.004968901705653117</v>
+        <v>0.005566568035209052</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.8022778557786481</v>
+        <v>0.5656985843491782</v>
       </c>
       <c r="L16">
-        <v>0.07081645861487473</v>
+        <v>0.2374367665927579</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.2001449554714156</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.06801578614315318</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0.6772134245058776</v>
+        <v>0</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0.700092034671826</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.7476017062491</v>
+        <v>4.264698875595343</v>
       </c>
       <c r="C17">
-        <v>1.792277653787664</v>
+        <v>1.856193697942217</v>
       </c>
       <c r="D17">
-        <v>0.02409420892058733</v>
+        <v>0.04093974340264595</v>
       </c>
       <c r="E17">
-        <v>0.04881101865131399</v>
+        <v>0.05538966333210027</v>
       </c>
       <c r="F17">
-        <v>2.272011664600811</v>
+        <v>1.874382970273146</v>
       </c>
       <c r="G17">
-        <v>0.0007980400468881796</v>
+        <v>0.002255081116373958</v>
       </c>
       <c r="H17">
-        <v>0.1253695858594739</v>
+        <v>0.12564481497364</v>
       </c>
       <c r="I17">
-        <v>0.004263823288431112</v>
+        <v>0.005151292754565162</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.8254909250955507</v>
+        <v>0.6032526446091211</v>
       </c>
       <c r="L17">
-        <v>0.08450616693518853</v>
+        <v>0.2545108141154699</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.2104840387374338</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.08226671263825835</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0.6914466288831651</v>
+        <v>0</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0.6922303215762184</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.818504641070945</v>
+        <v>4.335247798062767</v>
       </c>
       <c r="C18">
-        <v>1.861809279706051</v>
+        <v>1.950392573258512</v>
       </c>
       <c r="D18">
-        <v>0.03042978645547123</v>
+        <v>0.04943275799375613</v>
       </c>
       <c r="E18">
-        <v>0.06941781761353383</v>
+        <v>0.07765518165725993</v>
       </c>
       <c r="F18">
-        <v>2.476775624809378</v>
+        <v>2.068512963040661</v>
       </c>
       <c r="G18">
-        <v>0.000798299837593401</v>
+        <v>0.0008961806519840465</v>
       </c>
       <c r="H18">
-        <v>0.07253091415856971</v>
+        <v>0.07284033717986205</v>
       </c>
       <c r="I18">
-        <v>0.00398282948436357</v>
+        <v>0.004883990064289634</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.8992949458898067</v>
+        <v>0.665882445736024</v>
       </c>
       <c r="L18">
-        <v>0.1248249427025812</v>
+        <v>0.2795436685807076</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.2322580975283444</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.1215928758365621</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0.7042711381035387</v>
+        <v>0</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0.6816510299834135</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.015230904607904</v>
+        <v>4.495898394327583</v>
       </c>
       <c r="C19">
-        <v>2.001689320583694</v>
+        <v>2.106200229667536</v>
       </c>
       <c r="D19">
-        <v>0.04142512568024159</v>
+        <v>0.06458996535732098</v>
       </c>
       <c r="E19">
-        <v>0.1067382638234413</v>
+        <v>0.1172522895902972</v>
       </c>
       <c r="F19">
-        <v>2.787419030880443</v>
+        <v>2.334798431000948</v>
       </c>
       <c r="G19">
-        <v>0.0007972414371258951</v>
+        <v>0.0005320123003604849</v>
       </c>
       <c r="H19">
-        <v>0.02792784622926803</v>
+        <v>0.02822243572205707</v>
       </c>
       <c r="I19">
-        <v>0.004558371946989048</v>
+        <v>0.005396889522629067</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.005516292224264</v>
+        <v>0.7450104563578179</v>
       </c>
       <c r="L19">
-        <v>0.1995203724198689</v>
+        <v>0.3093805985865146</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.2620606096939113</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.1939974231710124</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0.7222597714015286</v>
+        <v>0</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0.674219397063851</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.591224602374609</v>
+        <v>4.934145266620021</v>
       </c>
       <c r="C20">
-        <v>2.331592102010347</v>
+        <v>2.426702687588147</v>
       </c>
       <c r="D20">
-        <v>0.06439383333255932</v>
+        <v>0.09826207388042008</v>
       </c>
       <c r="E20">
-        <v>0.1890714580548973</v>
+        <v>0.2040486178685583</v>
       </c>
       <c r="F20">
-        <v>3.41021596833582</v>
+        <v>2.809857871413726</v>
       </c>
       <c r="G20">
-        <v>0.0007924543047207248</v>
+        <v>0.002434843215992188</v>
       </c>
       <c r="H20">
-        <v>0.004929331852464358</v>
+        <v>0.004772564005313118</v>
       </c>
       <c r="I20">
-        <v>0.007081907168183577</v>
+        <v>0.007204453561922008</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.212660334873902</v>
+        <v>0.8754884816156689</v>
       </c>
       <c r="L20">
-        <v>0.3675292118444844</v>
+        <v>0.3530419965354383</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.3178966267635133</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.3547967805798038</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0.7524446270125793</v>
+        <v>0</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0.6634206178455104</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.342815226781397</v>
+        <v>5.305912286647413</v>
       </c>
       <c r="C21">
-        <v>2.659323528044183</v>
+        <v>2.529614077052145</v>
       </c>
       <c r="D21">
-        <v>0.07456226254682008</v>
+        <v>0.1332000124753137</v>
       </c>
       <c r="E21">
-        <v>0.2208143328372856</v>
+        <v>0.2429734039779703</v>
       </c>
       <c r="F21">
-        <v>3.814844082428408</v>
+        <v>2.822005874380324</v>
       </c>
       <c r="G21">
-        <v>0.0007848006115579278</v>
+        <v>0.06439338975867059</v>
       </c>
       <c r="H21">
-        <v>0.01012071873345875</v>
+        <v>0.007951907329761532</v>
       </c>
       <c r="I21">
-        <v>0.01249384821964838</v>
+        <v>0.009950772422083531</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.333414147417145</v>
+        <v>0.8340146305188156</v>
       </c>
       <c r="L21">
-        <v>0.4303111774764119</v>
+        <v>0.32459456074249</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.3184368849660046</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.4025906137952262</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0.7168136344646534</v>
+        <v>0</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0.6261610715820041</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.829966105588142</v>
+        <v>5.524150500393716</v>
       </c>
       <c r="C22">
-        <v>2.862173276223984</v>
+        <v>2.568692509778259</v>
       </c>
       <c r="D22">
-        <v>0.07979244349839121</v>
+        <v>0.1570631855721132</v>
       </c>
       <c r="E22">
-        <v>0.2374234458238362</v>
+        <v>0.2647659642743392</v>
       </c>
       <c r="F22">
-        <v>4.066085333024233</v>
+        <v>2.799554387618031</v>
       </c>
       <c r="G22">
-        <v>0.0007799603617568185</v>
+        <v>0.1543431581815824</v>
       </c>
       <c r="H22">
-        <v>0.01437193047044505</v>
+        <v>0.01036778140388968</v>
       </c>
       <c r="I22">
-        <v>0.01662604354749586</v>
+        <v>0.01163377341682814</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.410139772061996</v>
+        <v>0.7996899132198791</v>
       </c>
       <c r="L22">
-        <v>0.4633253281211438</v>
+        <v>0.3043502178277109</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.3154589094637501</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.4251175477541835</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
-        <v>0.6932746238003169</v>
+        <v>0</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0.6099820938379281</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.579776967678129</v>
+        <v>5.446405214079505</v>
       </c>
       <c r="C23">
-        <v>2.7513234123237</v>
+        <v>2.571569946812986</v>
       </c>
       <c r="D23">
-        <v>0.07658839448250632</v>
+        <v>0.141047464638973</v>
       </c>
       <c r="E23">
-        <v>0.22836384906023</v>
+        <v>0.2520491881308331</v>
       </c>
       <c r="F23">
-        <v>3.940417634085236</v>
+        <v>2.851918264435312</v>
       </c>
       <c r="G23">
-        <v>0.000782504386945597</v>
+        <v>0.08808430520547006</v>
       </c>
       <c r="H23">
-        <v>0.0120398217164126</v>
+        <v>0.00913295635460426</v>
       </c>
       <c r="I23">
-        <v>0.01410618026660604</v>
+        <v>0.01049898101457636</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.37427717859785</v>
+        <v>0.8342103139011172</v>
       </c>
       <c r="L23">
-        <v>0.4459012833346208</v>
+        <v>0.3206898262922309</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.3237004777846479</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.4142968174978137</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>0.7074723603600397</v>
+        <v>0</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0.6167709499177541</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.62235341399554</v>
+        <v>4.961597101702466</v>
       </c>
       <c r="C24">
-        <v>2.341328067028599</v>
+        <v>2.439599899396455</v>
       </c>
       <c r="D24">
-        <v>0.06535410121742302</v>
+        <v>0.09950165667118682</v>
       </c>
       <c r="E24">
-        <v>0.1948837470918932</v>
+        <v>0.2100926401792833</v>
       </c>
       <c r="F24">
-        <v>3.457852740049418</v>
+        <v>2.852347119208417</v>
       </c>
       <c r="G24">
-        <v>0.0007923220695880655</v>
+        <v>0.002267188796416519</v>
       </c>
       <c r="H24">
-        <v>0.00498718115604202</v>
+        <v>0.004815397163277502</v>
       </c>
       <c r="I24">
-        <v>0.006729291825635642</v>
+        <v>0.006733773975295065</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.232614955416636</v>
+        <v>0.8913746219342897</v>
       </c>
       <c r="L24">
-        <v>0.3805120297263755</v>
+        <v>0.3590460426122704</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.3238513856281884</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.3674772439186711</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
-        <v>0.7598325606191949</v>
+        <v>0</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0.6653197243851265</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.600824576030618</v>
+        <v>4.104535861774252</v>
       </c>
       <c r="C25">
-        <v>1.909486952255691</v>
+        <v>2.008775372683999</v>
       </c>
       <c r="D25">
-        <v>0.05364814212771307</v>
+        <v>0.08176208917216599</v>
       </c>
       <c r="E25">
-        <v>0.159701514555767</v>
+        <v>0.1744364951095463</v>
       </c>
       <c r="F25">
-        <v>2.950983173697125</v>
+        <v>2.474380422525968</v>
       </c>
       <c r="G25">
-        <v>0.0008032257790183133</v>
+        <v>0.001894222084749764</v>
       </c>
       <c r="H25">
-        <v>0.0007441758718305103</v>
+        <v>0.001215805535315972</v>
       </c>
       <c r="I25">
-        <v>0.00212571287169272</v>
+        <v>0.003129528219139033</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.084613925599044</v>
+        <v>0.8071859219713886</v>
       </c>
       <c r="L25">
-        <v>0.3116541981486023</v>
+        <v>0.3484784207268206</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.2679142377155515</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.3061813373541611</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
-        <v>0.8188442099378719</v>
+        <v>0</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0.7189904597587429</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
